--- a/CheckList_control_calidad_Productos.xlsx
+++ b/CheckList_control_calidad_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2886161-017B-434B-AA7A-06B37DAAF598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BDCE2D-21B4-4650-9BED-443FFE31FA6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{22BBE0F1-CB60-4739-80A3-1D6304EC72D6}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="134">
   <si>
     <t>id_data</t>
   </si>
@@ -442,13 +442,22 @@
   </si>
   <si>
     <t>DATACOMERCIO</t>
+  </si>
+  <si>
+    <t>ACTUALIZAR LINK</t>
+  </si>
+  <si>
+    <t>GEE Geomática</t>
+  </si>
+  <si>
+    <t>Claudia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +482,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -567,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,12 +650,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="116">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -1841,12 +1898,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="4" xr9:uid="{E73DC5DB-65E0-4CDC-8723-39C447B57205}">
-      <tableStyleElement type="wholeTable" dxfId="111"/>
-      <tableStyleElement type="headerRow" dxfId="110"/>
+      <tableStyleElement type="wholeTable" dxfId="115"/>
+      <tableStyleElement type="headerRow" dxfId="114"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 1 2" pivot="0" table="0" count="4" xr9:uid="{FDE8ADFA-0004-4C7D-AFA7-843ECAFD2612}">
-      <tableStyleElement type="wholeTable" dxfId="109"/>
-      <tableStyleElement type="headerRow" dxfId="108"/>
+      <tableStyleElement type="wholeTable" dxfId="113"/>
+      <tableStyleElement type="headerRow" dxfId="112"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2191,8 +2248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA33906E-3192-4C5E-B50C-059F3B3A57AA}" name="Tabla1" displayName="Tabla1" ref="A7:N68" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <autoFilter ref="A7:N68" xr:uid="{F94598C0-675C-458D-8A7A-0507A479BD62}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA33906E-3192-4C5E-B50C-059F3B3A57AA}" name="Tabla1" displayName="Tabla1" ref="A7:N69" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+  <autoFilter ref="A7:N69" xr:uid="{F94598C0-675C-458D-8A7A-0507A479BD62}">
     <filterColumn colId="13">
       <filters>
         <filter val="0"/>
@@ -2200,20 +2257,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{CA3E0233-8209-4630-ADEA-2E0E51C73296}" name="id_data" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{9B8D6091-6D3D-473D-A9A3-CC8A5186F5AE}" name="Corr_Producto" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{66FCD6EB-8AAE-4CD4-ABAF-CAA730707198}" name="Data" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{BEBD8961-D6FB-4B95-811E-B8263D7CB37E}" name="Productos seleccionados" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{974E1CE3-9780-41C2-92CE-73B1DEA743B0}" name="Control de calidad" dataDxfId="101"/>
-    <tableColumn id="12" xr3:uid="{92D0E3B2-D49E-40D2-8040-69599106A637}" name="Observaciones acogidas" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{593B317A-3A43-4C8F-AFD0-96F8590CAD73}" name="Responsable" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{6CC30FE6-AEC2-488D-AE2A-123E78FDAD6F}" name="Publicado" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{1C035351-BF77-49A5-AD57-62BCF73D06DC}" name="Link" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{69330BAE-DBFC-4DDA-AA61-E5BE9CECDACE}" name="que falta?" dataDxfId="96"/>
-    <tableColumn id="14" xr3:uid="{F36049BD-0D02-45AD-BDD0-D6B537AE1989}" name="Como utilizarlo" dataDxfId="95"/>
-    <tableColumn id="13" xr3:uid="{6F734004-D3C2-4ECC-8AC2-4C05930E8CB5}" name="Logo" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{5B5E7BAA-CE7D-40E7-9087-30318D155B5A}" name="Portada" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{00471630-6282-4130-99F2-1F682676D816}" name="Listo para el lanzamiento" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{CA3E0233-8209-4630-ADEA-2E0E51C73296}" name="id_data" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{9B8D6091-6D3D-473D-A9A3-CC8A5186F5AE}" name="Corr_Producto" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{66FCD6EB-8AAE-4CD4-ABAF-CAA730707198}" name="Data" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{BEBD8961-D6FB-4B95-811E-B8263D7CB37E}" name="Productos seleccionados" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{974E1CE3-9780-41C2-92CE-73B1DEA743B0}" name="Control de calidad" dataDxfId="105"/>
+    <tableColumn id="12" xr3:uid="{92D0E3B2-D49E-40D2-8040-69599106A637}" name="Observaciones acogidas" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{593B317A-3A43-4C8F-AFD0-96F8590CAD73}" name="Responsable" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{6CC30FE6-AEC2-488D-AE2A-123E78FDAD6F}" name="Publicado" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{1C035351-BF77-49A5-AD57-62BCF73D06DC}" name="Link" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{69330BAE-DBFC-4DDA-AA61-E5BE9CECDACE}" name="que falta?" dataDxfId="100"/>
+    <tableColumn id="14" xr3:uid="{F36049BD-0D02-45AD-BDD0-D6B537AE1989}" name="Como utilizarlo" dataDxfId="99"/>
+    <tableColumn id="13" xr3:uid="{6F734004-D3C2-4ECC-8AC2-4C05930E8CB5}" name="Logo" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{5B5E7BAA-CE7D-40E7-9087-30318D155B5A}" name="Portada" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{00471630-6282-4130-99F2-1F682676D816}" name="Listo para el lanzamiento" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2516,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76524AA2-8EDB-4148-B5B0-FAD5A16B748B}">
-  <dimension ref="A2:N68"/>
+  <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2800,7 +2857,9 @@
       <c r="I12" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="K12" s="20">
         <v>1</v>
       </c>
@@ -3572,10 +3631,10 @@
         <v>97</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>28</v>
@@ -3595,43 +3654,38 @@
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C38" s="8" t="s">
-        <v>130</v>
+      <c r="D38" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="16"/>
+        <v>82</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="H38" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="I38" s="26"/>
       <c r="J38" s="17"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>18</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G39" s="16"/>
       <c r="H39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" s="17"/>
       <c r="N39" s="3"/>
@@ -3641,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>77</v>
@@ -3650,7 +3704,7 @@
         <v>82</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>81</v>
@@ -3666,16 +3720,16 @@
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>81</v>
@@ -3684,31 +3738,23 @@
         <v>86</v>
       </c>
       <c r="J41" s="17"/>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C42" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>81</v>
@@ -3717,89 +3763,118 @@
         <v>86</v>
       </c>
       <c r="J42" s="17"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C43" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D43" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="J43" s="17"/>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D44" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G44" s="16"/>
+      <c r="J44" s="17"/>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D45" s="8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G45" s="16"/>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D46" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G46" s="16"/>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D47" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G47" s="16"/>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D48" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G48" s="16"/>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D49" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G49" s="16"/>
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D50" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G50" s="16"/>
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D51" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G51" s="16"/>
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D52" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G52" s="16"/>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D53" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G53" s="16"/>
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D54" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" s="16"/>
       <c r="N54" s="3"/>
@@ -3902,335 +3977,356 @@
       <c r="G68" s="16"/>
       <c r="N68" s="3"/>
     </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D69" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="N69" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E6 E38:E1048576 E8:E18 E20:E36">
-    <cfRule type="cellIs" dxfId="79" priority="94" operator="equal">
+  <conditionalFormatting sqref="E1:E6 E39:E1048576 E8:E18 E20:E36">
+    <cfRule type="cellIs" dxfId="83" priority="98" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="100" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="101" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
+    <cfRule type="cellIs" dxfId="79" priority="97" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
+    <cfRule type="cellIs" dxfId="78" priority="96" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="77" priority="95" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="76" priority="94" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="75" priority="93" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14 F27 F17">
+    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="88" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="78" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
-    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="73" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="76" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="71" priority="89" operator="equal">
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F22 F24:F25">
+    <cfRule type="cellIs" dxfId="62" priority="73" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+      <formula>"Sí"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H69">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+      <formula>"No sé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
+      <formula>"Sí"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F29">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F27 F17">
-    <cfRule type="cellIs" dxfId="70" priority="83" operator="equal">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="74" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="72" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="60" priority="71" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22 F24:F25">
-    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
-      <formula>"Sí"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H68">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
-      <formula>"No sé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
-      <formula>"Sí"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F29">
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E37:E38">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E38">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+  <conditionalFormatting sqref="E37:E38">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E38">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F31">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+  <conditionalFormatting sqref="F30:F31">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F31">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F42">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No iniciado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4251,11 +4347,11 @@
     <hyperlink ref="I10" r:id="rId15" display="https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{940495BE-FE18-44FC-B714-C2DD42BA04F0}"/>
     <hyperlink ref="I36" r:id="rId16" display="https://app.powerbi.com/view?r=eyJrIjoiN2Y0MzcxMjgtNDU4My00ODEzLThlYTktNTk0ZmVmMDJlZTU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{64E7F0B5-ECB3-49B8-8CB5-BD8844E5E057}"/>
     <hyperlink ref="I37" r:id="rId17" display="https://app.powerbi.com/view?r=eyJrIjoiZTVlMjRhYjUtZmQ2Yi00ZDA4LTgxOWMtNzM2MzZkNWRlNWNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{3120718C-E1A2-4EB1-B2D5-CFDBD4D194F4}"/>
-    <hyperlink ref="I40" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiMDMwZWM0N2EtMWM1Zi00NDVmLWJiZDAtNzU0MmNhMTk3ZmM1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0B02B463-6996-480C-AA64-1EDC3C7DE942}"/>
-    <hyperlink ref="I39" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{EC295C34-497B-4984-ACD7-8FE11B45DEBB}"/>
-    <hyperlink ref="I41" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4C74573B-B11E-4241-B988-1417D35A4C84}"/>
+    <hyperlink ref="I41" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiMDMwZWM0N2EtMWM1Zi00NDVmLWJiZDAtNzU0MmNhMTk3ZmM1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0B02B463-6996-480C-AA64-1EDC3C7DE942}"/>
+    <hyperlink ref="I40" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{EC295C34-497B-4984-ACD7-8FE11B45DEBB}"/>
+    <hyperlink ref="I42" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4C74573B-B11E-4241-B988-1417D35A4C84}"/>
     <hyperlink ref="I15" r:id="rId21" display="https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C5364A15-2260-4D5D-8FB6-3A899CA5963D}"/>
-    <hyperlink ref="I42" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C7497D2D-2AFF-4B40-803C-C13E4B453CE0}"/>
+    <hyperlink ref="I43" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C7497D2D-2AFF-4B40-803C-C13E4B453CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -4267,7 +4363,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{E862098E-BE2E-466C-88ED-8C2B13573CEA}">
+          <x14:cfRule type="iconSet" priority="49" id="{E862098E-BE2E-466C-88ED-8C2B13573CEA}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4286,7 +4382,7 @@
           <xm:sqref>K1:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="126" id="{8ACB3541-9894-45E0-B730-A983311A443C}">
+          <x14:cfRule type="iconSet" priority="130" id="{8ACB3541-9894-45E0-B730-A983311A443C}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4302,7 +4398,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>N8:N68</xm:sqref>
+          <xm:sqref>N8:N69</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/CheckList_control_calidad_Productos.xlsx
+++ b/CheckList_control_calidad_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BDCE2D-21B4-4650-9BED-443FFE31FA6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413AB8B8-28CB-4B87-80B9-892B6853C363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{22BBE0F1-CB60-4739-80A3-1D6304EC72D6}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
   <si>
     <t>id_data</t>
   </si>
@@ -192,9 +192,6 @@
     <t>0003</t>
   </si>
   <si>
-    <t>DATAAGRO</t>
-  </si>
-  <si>
     <t>0009</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>00090</t>
   </si>
   <si>
-    <t xml:space="preserve">AGROSTAT - Estadísticas de Incendios Forestales Región de la Araucanía </t>
-  </si>
-  <si>
     <t>00091</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>Comunidad Lingüística individual</t>
   </si>
   <si>
-    <t>Logo superpuesto vista</t>
-  </si>
-  <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiN2RiNDAxYWQtZjIyZi00ZmQ5LWE0M2UtOTBkMGQ3NWEyNGM5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectiond3ed353228b160739c25</t>
   </si>
   <si>
@@ -372,9 +363,6 @@
     <t>sí</t>
   </si>
   <si>
-    <t>revisar y Actualizar datos</t>
-  </si>
-  <si>
     <t>DATAFUEGO - GT</t>
   </si>
   <si>
@@ -444,20 +432,32 @@
     <t>DATACOMERCIO</t>
   </si>
   <si>
-    <t>ACTUALIZAR LINK</t>
-  </si>
-  <si>
     <t>GEE Geomática</t>
   </si>
   <si>
-    <t>Claudia</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>verificado link shopify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadísticas de Incendios Forestales Región de la Araucanía </t>
+  </si>
+  <si>
+    <t>DATAFOREST</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Actualizar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,8 +493,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -651,942 +665,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1832,6 +919,828 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1898,12 +1807,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="4" xr9:uid="{E73DC5DB-65E0-4CDC-8723-39C447B57205}">
-      <tableStyleElement type="wholeTable" dxfId="115"/>
-      <tableStyleElement type="headerRow" dxfId="114"/>
+      <tableStyleElement type="wholeTable" dxfId="103"/>
+      <tableStyleElement type="headerRow" dxfId="102"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 1 2" pivot="0" table="0" count="4" xr9:uid="{FDE8ADFA-0004-4C7D-AFA7-843ECAFD2612}">
-      <tableStyleElement type="wholeTable" dxfId="113"/>
-      <tableStyleElement type="headerRow" dxfId="112"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2248,7 +2157,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA33906E-3192-4C5E-B50C-059F3B3A57AA}" name="Tabla1" displayName="Tabla1" ref="A7:N69" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA33906E-3192-4C5E-B50C-059F3B3A57AA}" name="Tabla1" displayName="Tabla1" ref="A7:N69" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A7:N69" xr:uid="{F94598C0-675C-458D-8A7A-0507A479BD62}">
     <filterColumn colId="13">
       <filters>
@@ -2257,20 +2166,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{CA3E0233-8209-4630-ADEA-2E0E51C73296}" name="id_data" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{9B8D6091-6D3D-473D-A9A3-CC8A5186F5AE}" name="Corr_Producto" dataDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{66FCD6EB-8AAE-4CD4-ABAF-CAA730707198}" name="Data" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{BEBD8961-D6FB-4B95-811E-B8263D7CB37E}" name="Productos seleccionados" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{974E1CE3-9780-41C2-92CE-73B1DEA743B0}" name="Control de calidad" dataDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{92D0E3B2-D49E-40D2-8040-69599106A637}" name="Observaciones acogidas" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{593B317A-3A43-4C8F-AFD0-96F8590CAD73}" name="Responsable" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{6CC30FE6-AEC2-488D-AE2A-123E78FDAD6F}" name="Publicado" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{1C035351-BF77-49A5-AD57-62BCF73D06DC}" name="Link" dataDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{69330BAE-DBFC-4DDA-AA61-E5BE9CECDACE}" name="que falta?" dataDxfId="100"/>
-    <tableColumn id="14" xr3:uid="{F36049BD-0D02-45AD-BDD0-D6B537AE1989}" name="Como utilizarlo" dataDxfId="99"/>
-    <tableColumn id="13" xr3:uid="{6F734004-D3C2-4ECC-8AC2-4C05930E8CB5}" name="Logo" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{5B5E7BAA-CE7D-40E7-9087-30318D155B5A}" name="Portada" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{00471630-6282-4130-99F2-1F682676D816}" name="Listo para el lanzamiento" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{CA3E0233-8209-4630-ADEA-2E0E51C73296}" name="id_data" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9B8D6091-6D3D-473D-A9A3-CC8A5186F5AE}" name="Corr_Producto" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{66FCD6EB-8AAE-4CD4-ABAF-CAA730707198}" name="Data" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{BEBD8961-D6FB-4B95-811E-B8263D7CB37E}" name="Productos seleccionados" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{974E1CE3-9780-41C2-92CE-73B1DEA743B0}" name="Control de calidad" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{92D0E3B2-D49E-40D2-8040-69599106A637}" name="Observaciones acogidas" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{593B317A-3A43-4C8F-AFD0-96F8590CAD73}" name="Responsable" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{6CC30FE6-AEC2-488D-AE2A-123E78FDAD6F}" name="Publicado" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{1C035351-BF77-49A5-AD57-62BCF73D06DC}" name="Link" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{69330BAE-DBFC-4DDA-AA61-E5BE9CECDACE}" name="que falta?" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{F36049BD-0D02-45AD-BDD0-D6B537AE1989}" name="Como utilizarlo" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{6F734004-D3C2-4ECC-8AC2-4C05930E8CB5}" name="Logo" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5B5E7BAA-CE7D-40E7-9087-30318D155B5A}" name="Portada" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00471630-6282-4130-99F2-1F682676D816}" name="Listo para el lanzamiento" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2575,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76524AA2-8EDB-4148-B5B0-FAD5A16B748B}">
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2600,19 +2509,19 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.35">
@@ -2626,37 +2535,37 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
@@ -2673,32 +2582,32 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="36.5" x14ac:dyDescent="0.35">
@@ -2715,22 +2624,22 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K9" s="20">
         <v>1</v>
@@ -2745,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -2759,19 +2668,19 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="20">
@@ -2787,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -2801,19 +2710,19 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="3">
@@ -2829,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2843,23 +2752,21 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>131</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="17"/>
       <c r="K12" s="20">
         <v>1</v>
       </c>
@@ -2870,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24.5" x14ac:dyDescent="0.35">
@@ -2887,22 +2794,22 @@
         <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K13" s="20">
         <v>1</v>
@@ -2917,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2931,19 +2838,19 @@
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="3">
@@ -2956,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -2973,19 +2880,19 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="20">
@@ -2998,10 +2905,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -3015,19 +2922,19 @@
         <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="3">
@@ -3057,19 +2964,19 @@
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="3">
@@ -3087,26 +2994,26 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D18" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" s="17"/>
       <c r="N18" s="3">
@@ -3115,31 +3022,31 @@
     </row>
     <row r="19" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="J19" s="17"/>
       <c r="M19" s="3">
@@ -3151,26 +3058,26 @@
     </row>
     <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" s="17"/>
       <c r="N20" s="3">
@@ -3182,23 +3089,23 @@
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -3209,23 +3116,23 @@
         <v>25</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -3233,35 +3140,33 @@
     </row>
     <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>59</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J23" s="17"/>
       <c r="K23" s="3">
         <v>1</v>
       </c>
@@ -3280,25 +3185,25 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -3309,57 +3214,57 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="3">
@@ -3372,39 +3277,39 @@
         <v>1</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -3413,39 +3318,39 @@
         <v>1</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>68</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="3">
@@ -3458,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="24.5" x14ac:dyDescent="0.35">
@@ -3466,31 +3371,31 @@
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -3510,26 +3415,27 @@
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I30" s="29"/>
       <c r="J30" s="17"/>
       <c r="K30" s="3">
         <v>0</v>
@@ -3546,29 +3452,30 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="D31" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I31" s="29"/>
       <c r="J31" s="17"/>
       <c r="K31" s="3">
         <v>0</v>
@@ -3599,55 +3506,70 @@
       <c r="G35" s="16"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="J36" s="17"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
       <c r="N36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D37" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="J37" s="17"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
       <c r="M37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -3655,19 +3577,19 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D38" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="17"/>
@@ -3675,17 +3597,17 @@
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J39" s="17"/>
       <c r="N39" s="3"/>
@@ -3695,74 +3617,102 @@
         <v>4</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="17"/>
-      <c r="N40" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C41" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="17"/>
-      <c r="N41" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C42" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="K42" s="3">
         <v>1</v>
       </c>
@@ -3781,29 +3731,31 @@
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J43" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D44" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G44" s="16"/>
       <c r="J44" s="17"/>
@@ -3811,547 +3763,547 @@
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D45" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G45" s="16"/>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D46" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G46" s="16"/>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D47" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G47" s="16"/>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D48" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G48" s="16"/>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D49" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G49" s="16"/>
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D50" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G50" s="16"/>
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D51" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G51" s="16"/>
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D52" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G52" s="16"/>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D53" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G53" s="16"/>
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D54" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G54" s="16"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D55" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G55" s="16"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D56" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="16"/>
       <c r="N56" s="3"/>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D57" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G57" s="16"/>
       <c r="N57" s="3"/>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D58" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G58" s="16"/>
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D59" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G59" s="16"/>
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D60" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G60" s="16"/>
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D61" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G61" s="16"/>
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D62" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G62" s="16"/>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D63" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G63" s="16"/>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D64" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G64" s="16"/>
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D65" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" s="16"/>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D66" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G66" s="16"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D67" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G67" s="16"/>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D68" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G68" s="16"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D69" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G69" s="16"/>
       <c r="N69" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E6 E39:E1048576 E8:E18 E20:E36">
-    <cfRule type="cellIs" dxfId="83" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="101" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
-    <cfRule type="cellIs" dxfId="79" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
-    <cfRule type="cellIs" dxfId="78" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="77" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="76" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="75" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F27 F17">
-    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="60" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="59" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="76" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="64" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22 F24:F25">
-    <cfRule type="cellIs" dxfId="62" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="68" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H69">
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
       <formula>"No sé"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="65" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F29">
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="54" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="57" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="56" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="52" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="53" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="51" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="48" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="47" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="39" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="https://app.powerbi.com/view?r=eyJrIjoiOTdiNzI1ZjktZWM4MS00ODNiLTg3YmMtZDg1NzQ4ZmQ3MTM2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection" xr:uid="{DBF1EB14-2BC1-422D-8B96-DC4F7B9BF60F}"/>
-    <hyperlink ref="I27" r:id="rId2" display="https://app.powerbi.com/view?r=eyJrIjoiN2QzY2Q1YzUtOWRhZC00NjAzLTgxOWQtZmU2MzgzZDkxYzBhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{D8B0CC30-14F7-4620-A2D2-6991EC8DC651}"/>
-    <hyperlink ref="I8" r:id="rId3" xr:uid="{29BA6281-AB70-421F-BFC7-AE0270314E80}"/>
-    <hyperlink ref="I17" r:id="rId4" display="https://app.powerbi.com/view?r=eyJrIjoiNmM5MmI0MzUtMzcxYS00MzljLTkxYzQtYzk5MzJmYzU5YWU0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{EEEBA81F-0D53-4A63-BC40-8F8AD80E4CDB}"/>
-    <hyperlink ref="I12" r:id="rId5" display="https://app.powerbi.com/view?r=eyJrIjoiMzlhNjBlMTItNzFiMy00ODMxLWFhZjQtMTQ1MmY1NGMxM2U1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{D2C23CF5-4E63-4AE6-859F-95A3D77CDA19}"/>
-    <hyperlink ref="I13" r:id="rId6" display="https://app.powerbi.com/view?r=eyJrIjoiYzljMTRlY2YtOTM5Yy00OGIzLWI5MDEtNjI1N2Q2ZTliMjIxIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{98C6BD5E-91EE-4262-9EF0-DA98F54D3349}"/>
-    <hyperlink ref="I26" r:id="rId7" display="https://app.powerbi.com/view?r=eyJrIjoiNDY4Mzc1ZWMtMzk3MS00OTQzLWJkNzMtMzM1MjJiMmQ1OGE3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C7508D30-9A31-4CB4-B459-DD7AD143D2E5}"/>
-    <hyperlink ref="I9" r:id="rId8" display="https://app.powerbi.com/view?r=eyJrIjoiNDA4YTU5MWItMTM4OS00MjFlLTg4YzAtMzcwODVlMTRkMzNhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection" xr:uid="{C4F54ECE-3051-4DB7-8D77-B25C38EA48BB}"/>
-    <hyperlink ref="I14" r:id="rId9" display="https://app.powerbi.com/view?r=eyJrIjoiOGMyNjJmMTgtYmVmZC00MmY0LWFiM2ItNGM5M2YxZGFiMjc4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{1A43ED76-BD4F-4B15-A9FA-C0786030C3B2}"/>
-    <hyperlink ref="I16" r:id="rId10" display="https://app.powerbi.com/view?r=eyJrIjoiZTFiY2U3YmEtZTJjNS00ODJlLWFiNGUtODA4YTQ1YTg4NjAyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection236dfd66237a9a97d53f" xr:uid="{1B1D0F22-5624-42DF-85A2-4FE5B9FFB934}"/>
-    <hyperlink ref="I23" r:id="rId11" display="https://app.powerbi.com/view?r=eyJrIjoiMjQxM2IzMWItMTE5Ni00ZTJlLTlhMTQtMzkxZDhmZDc4NTZhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0CB06A61-BC73-4273-A908-C1B8A758B467}"/>
-    <hyperlink ref="I28" r:id="rId12" display="https://app.powerbi.com/view?r=eyJrIjoiYjY3NDVkZWItOWI3NC00ZDg1LWJjNjYtMDczMjFjYzM4MGJiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4F29687F-5148-48B4-ADA6-54923B733FC9}"/>
-    <hyperlink ref="I29" r:id="rId13" display="https://app.powerbi.com/view?r=eyJrIjoiNDA0MWJjYTUtNDhhOS00MjU4LWI5ODMtNzE5ZDNmMWZiZDlhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{502A239C-81D9-45E9-814C-BD4BCBE48612}"/>
-    <hyperlink ref="I19" r:id="rId14" display="http://104.43.141.146/datavivienda/" xr:uid="{5261F965-B7CB-4AD7-A610-92669CC4EC99}"/>
-    <hyperlink ref="I10" r:id="rId15" display="https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{940495BE-FE18-44FC-B714-C2DD42BA04F0}"/>
-    <hyperlink ref="I36" r:id="rId16" display="https://app.powerbi.com/view?r=eyJrIjoiN2Y0MzcxMjgtNDU4My00ODEzLThlYTktNTk0ZmVmMDJlZTU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{64E7F0B5-ECB3-49B8-8CB5-BD8844E5E057}"/>
-    <hyperlink ref="I37" r:id="rId17" display="https://app.powerbi.com/view?r=eyJrIjoiZTVlMjRhYjUtZmQ2Yi00ZDA4LTgxOWMtNzM2MzZkNWRlNWNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{3120718C-E1A2-4EB1-B2D5-CFDBD4D194F4}"/>
-    <hyperlink ref="I41" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiMDMwZWM0N2EtMWM1Zi00NDVmLWJiZDAtNzU0MmNhMTk3ZmM1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0B02B463-6996-480C-AA64-1EDC3C7DE942}"/>
-    <hyperlink ref="I40" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{EC295C34-497B-4984-ACD7-8FE11B45DEBB}"/>
-    <hyperlink ref="I42" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4C74573B-B11E-4241-B988-1417D35A4C84}"/>
-    <hyperlink ref="I15" r:id="rId21" display="https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C5364A15-2260-4D5D-8FB6-3A899CA5963D}"/>
-    <hyperlink ref="I43" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C7497D2D-2AFF-4B40-803C-C13E4B453CE0}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{29BA6281-AB70-421F-BFC7-AE0270314E80}"/>
+    <hyperlink ref="I17" r:id="rId3" display="https://app.powerbi.com/view?r=eyJrIjoiNmM5MmI0MzUtMzcxYS00MzljLTkxYzQtYzk5MzJmYzU5YWU0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{EEEBA81F-0D53-4A63-BC40-8F8AD80E4CDB}"/>
+    <hyperlink ref="I12" r:id="rId4" display="https://app.powerbi.com/view?r=eyJrIjoiMzlhNjBlMTItNzFiMy00ODMxLWFhZjQtMTQ1MmY1NGMxM2U1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{D2C23CF5-4E63-4AE6-859F-95A3D77CDA19}"/>
+    <hyperlink ref="I13" r:id="rId5" display="https://app.powerbi.com/view?r=eyJrIjoiYzljMTRlY2YtOTM5Yy00OGIzLWI5MDEtNjI1N2Q2ZTliMjIxIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{98C6BD5E-91EE-4262-9EF0-DA98F54D3349}"/>
+    <hyperlink ref="I9" r:id="rId6" display="https://app.powerbi.com/view?r=eyJrIjoiNDA4YTU5MWItMTM4OS00MjFlLTg4YzAtMzcwODVlMTRkMzNhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection" xr:uid="{C4F54ECE-3051-4DB7-8D77-B25C38EA48BB}"/>
+    <hyperlink ref="I29" r:id="rId7" display="https://app.powerbi.com/view?r=eyJrIjoiNDA0MWJjYTUtNDhhOS00MjU4LWI5ODMtNzE5ZDNmMWZiZDlhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{502A239C-81D9-45E9-814C-BD4BCBE48612}"/>
+    <hyperlink ref="I19" r:id="rId8" display="http://104.43.141.146/datavivienda/" xr:uid="{5261F965-B7CB-4AD7-A610-92669CC4EC99}"/>
+    <hyperlink ref="I10" r:id="rId9" display="https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{940495BE-FE18-44FC-B714-C2DD42BA04F0}"/>
+    <hyperlink ref="I41" r:id="rId10" display="https://app.powerbi.com/view?r=eyJrIjoiMDMwZWM0N2EtMWM1Zi00NDVmLWJiZDAtNzU0MmNhMTk3ZmM1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0B02B463-6996-480C-AA64-1EDC3C7DE942}"/>
+    <hyperlink ref="I40" r:id="rId11" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{EC295C34-497B-4984-ACD7-8FE11B45DEBB}"/>
+    <hyperlink ref="I42" r:id="rId12" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4C74573B-B11E-4241-B988-1417D35A4C84}"/>
+    <hyperlink ref="I15" r:id="rId13" display="https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C5364A15-2260-4D5D-8FB6-3A899CA5963D}"/>
+    <hyperlink ref="I43" r:id="rId14" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C7497D2D-2AFF-4B40-803C-C13E4B453CE0}"/>
+    <hyperlink ref="I27" r:id="rId15" display="https://app.powerbi.com/view?r=eyJrIjoiN2QzY2Q1YzUtOWRhZC00NjAzLTgxOWQtZmU2MzgzZDkxYzBhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{868574EA-000E-4D29-B7E2-3BF23AF2ED40}"/>
+    <hyperlink ref="I14" r:id="rId16" display="https://app.powerbi.com/view?r=eyJrIjoiOGMyNjJmMTgtYmVmZC00MmY0LWFiM2ItNGM5M2YxZGFiMjc4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{064E9AAE-D3BA-4640-8E1C-0E4560FC8E63}"/>
+    <hyperlink ref="I28" r:id="rId17" display="https://app.powerbi.com/view?r=eyJrIjoiYjY3NDVkZWItOWI3NC00ZDg1LWJjNjYtMDczMjFjYzM4MGJiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{3E448282-A0AD-4F44-95A8-18825F9CE866}"/>
+    <hyperlink ref="I26" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiNDY4Mzc1ZWMtMzk3MS00OTQzLWJkNzMtMzM1MjJiMmQ1OGE3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{F1D7CA0B-4967-4222-BC7A-9940F22DE92E}"/>
+    <hyperlink ref="I16" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiZTFiY2U3YmEtZTJjNS00ODJlLWFiNGUtODA4YTQ1YTg4NjAyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection236dfd66237a9a97d53f" xr:uid="{ADC7F8A3-408A-4C0C-AA2C-89143F8368B2}"/>
+    <hyperlink ref="I37" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiZTVlMjRhYjUtZmQ2Yi00ZDA4LTgxOWMtNzM2MzZkNWRlNWNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{14793DD5-C798-4547-903A-9135D9A5C77B}"/>
+    <hyperlink ref="I36" r:id="rId21" display="https://app.powerbi.com/view?r=eyJrIjoiN2Y0MzcxMjgtNDU4My00ODEzLThlYTktNTk0ZmVmMDJlZTU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4FB25492-F207-4BED-BF51-3147F5C14743}"/>
+    <hyperlink ref="I23" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiNzQyZDE0ZTgtNzcxOS00MzA5LTgxNzAtNTNlNGM5NWE5YTkwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{03014AAF-F0D1-4884-A17A-E31D05BCF0D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>

--- a/CheckList_control_calidad_Productos.xlsx
+++ b/CheckList_control_calidad_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413AB8B8-28CB-4B87-80B9-892B6853C363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35283374-EBAB-4C00-89D5-DC9C910D69AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{22BBE0F1-CB60-4739-80A3-1D6304EC72D6}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="135">
   <si>
     <t>id_data</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Actualizar</t>
+  </si>
+  <si>
+    <t>Falta en Pagina de glosario</t>
   </si>
 </sst>
 </file>
@@ -2484,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76524AA2-8EDB-4148-B5B0-FAD5A16B748B}">
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2568,7 +2571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2596,7 @@
       <c r="H8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="28" t="s">
         <v>101</v>
       </c>
       <c r="J8" s="17"/>
@@ -2693,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
@@ -2735,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -2766,7 +2769,9 @@
       <c r="I12" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="K12" s="20">
         <v>1</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24.5" x14ac:dyDescent="0.35">
@@ -2815,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="20">
         <v>1</v>
@@ -3612,7 +3617,7 @@
       <c r="J39" s="17"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:14" ht="24.5" x14ac:dyDescent="0.35">
       <c r="C40" s="8" t="s">
         <v>4</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>84</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -3688,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="8" t="s">
         <v>4</v>
       </c>
@@ -3707,12 +3712,10 @@
       <c r="H42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="J42" s="17"/>
       <c r="K42" s="3">
         <v>1</v>
       </c>
@@ -3723,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" s="8" t="s">
         <v>4</v>
       </c>
@@ -3745,13 +3748,22 @@
       <c r="H43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J43" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N43" s="3"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D44" s="8" t="s">
@@ -4292,18 +4304,18 @@
     <hyperlink ref="I19" r:id="rId8" display="http://104.43.141.146/datavivienda/" xr:uid="{5261F965-B7CB-4AD7-A610-92669CC4EC99}"/>
     <hyperlink ref="I10" r:id="rId9" display="https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{940495BE-FE18-44FC-B714-C2DD42BA04F0}"/>
     <hyperlink ref="I41" r:id="rId10" display="https://app.powerbi.com/view?r=eyJrIjoiMDMwZWM0N2EtMWM1Zi00NDVmLWJiZDAtNzU0MmNhMTk3ZmM1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0B02B463-6996-480C-AA64-1EDC3C7DE942}"/>
-    <hyperlink ref="I40" r:id="rId11" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{EC295C34-497B-4984-ACD7-8FE11B45DEBB}"/>
-    <hyperlink ref="I42" r:id="rId12" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4C74573B-B11E-4241-B988-1417D35A4C84}"/>
-    <hyperlink ref="I15" r:id="rId13" display="https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C5364A15-2260-4D5D-8FB6-3A899CA5963D}"/>
-    <hyperlink ref="I43" r:id="rId14" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C7497D2D-2AFF-4B40-803C-C13E4B453CE0}"/>
-    <hyperlink ref="I27" r:id="rId15" display="https://app.powerbi.com/view?r=eyJrIjoiN2QzY2Q1YzUtOWRhZC00NjAzLTgxOWQtZmU2MzgzZDkxYzBhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{868574EA-000E-4D29-B7E2-3BF23AF2ED40}"/>
-    <hyperlink ref="I14" r:id="rId16" display="https://app.powerbi.com/view?r=eyJrIjoiOGMyNjJmMTgtYmVmZC00MmY0LWFiM2ItNGM5M2YxZGFiMjc4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{064E9AAE-D3BA-4640-8E1C-0E4560FC8E63}"/>
-    <hyperlink ref="I28" r:id="rId17" display="https://app.powerbi.com/view?r=eyJrIjoiYjY3NDVkZWItOWI3NC00ZDg1LWJjNjYtMDczMjFjYzM4MGJiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{3E448282-A0AD-4F44-95A8-18825F9CE866}"/>
-    <hyperlink ref="I26" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiNDY4Mzc1ZWMtMzk3MS00OTQzLWJkNzMtMzM1MjJiMmQ1OGE3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{F1D7CA0B-4967-4222-BC7A-9940F22DE92E}"/>
-    <hyperlink ref="I16" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiZTFiY2U3YmEtZTJjNS00ODJlLWFiNGUtODA4YTQ1YTg4NjAyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection236dfd66237a9a97d53f" xr:uid="{ADC7F8A3-408A-4C0C-AA2C-89143F8368B2}"/>
-    <hyperlink ref="I37" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiZTVlMjRhYjUtZmQ2Yi00ZDA4LTgxOWMtNzM2MzZkNWRlNWNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{14793DD5-C798-4547-903A-9135D9A5C77B}"/>
-    <hyperlink ref="I36" r:id="rId21" display="https://app.powerbi.com/view?r=eyJrIjoiN2Y0MzcxMjgtNDU4My00ODEzLThlYTktNTk0ZmVmMDJlZTU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4FB25492-F207-4BED-BF51-3147F5C14743}"/>
-    <hyperlink ref="I23" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiNzQyZDE0ZTgtNzcxOS00MzA5LTgxNzAtNTNlNGM5NWE5YTkwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{03014AAF-F0D1-4884-A17A-E31D05BCF0D9}"/>
+    <hyperlink ref="I15" r:id="rId11" display="https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C5364A15-2260-4D5D-8FB6-3A899CA5963D}"/>
+    <hyperlink ref="I27" r:id="rId12" display="https://app.powerbi.com/view?r=eyJrIjoiN2QzY2Q1YzUtOWRhZC00NjAzLTgxOWQtZmU2MzgzZDkxYzBhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{868574EA-000E-4D29-B7E2-3BF23AF2ED40}"/>
+    <hyperlink ref="I14" r:id="rId13" display="https://app.powerbi.com/view?r=eyJrIjoiOGMyNjJmMTgtYmVmZC00MmY0LWFiM2ItNGM5M2YxZGFiMjc4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{064E9AAE-D3BA-4640-8E1C-0E4560FC8E63}"/>
+    <hyperlink ref="I28" r:id="rId14" display="https://app.powerbi.com/view?r=eyJrIjoiYjY3NDVkZWItOWI3NC00ZDg1LWJjNjYtMDczMjFjYzM4MGJiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{3E448282-A0AD-4F44-95A8-18825F9CE866}"/>
+    <hyperlink ref="I26" r:id="rId15" display="https://app.powerbi.com/view?r=eyJrIjoiNDY4Mzc1ZWMtMzk3MS00OTQzLWJkNzMtMzM1MjJiMmQ1OGE3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{F1D7CA0B-4967-4222-BC7A-9940F22DE92E}"/>
+    <hyperlink ref="I16" r:id="rId16" display="https://app.powerbi.com/view?r=eyJrIjoiZTFiY2U3YmEtZTJjNS00ODJlLWFiNGUtODA4YTQ1YTg4NjAyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection236dfd66237a9a97d53f" xr:uid="{ADC7F8A3-408A-4C0C-AA2C-89143F8368B2}"/>
+    <hyperlink ref="I37" r:id="rId17" display="https://app.powerbi.com/view?r=eyJrIjoiZTVlMjRhYjUtZmQ2Yi00ZDA4LTgxOWMtNzM2MzZkNWRlNWNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{14793DD5-C798-4547-903A-9135D9A5C77B}"/>
+    <hyperlink ref="I36" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiN2Y0MzcxMjgtNDU4My00ODEzLThlYTktNTk0ZmVmMDJlZTU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4FB25492-F207-4BED-BF51-3147F5C14743}"/>
+    <hyperlink ref="I23" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiNzQyZDE0ZTgtNzcxOS00MzA5LTgxNzAtNTNlNGM5NWE5YTkwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{03014AAF-F0D1-4884-A17A-E31D05BCF0D9}"/>
+    <hyperlink ref="I42" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{E6CD55DD-7333-4455-9CDE-A9D05691D019}"/>
+    <hyperlink ref="I43" r:id="rId21" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{308F484F-97E5-4012-9D9D-4CD3770DB9EF}"/>
+    <hyperlink ref="I40" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{3C541839-0F8A-4322-9FC7-499EA14D9601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>

--- a/CheckList_control_calidad_Productos.xlsx
+++ b/CheckList_control_calidad_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35283374-EBAB-4C00-89D5-DC9C910D69AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDCA775-752F-4AD4-91C3-6C5F4D924946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{22BBE0F1-CB60-4739-80A3-1D6304EC72D6}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="136">
   <si>
     <t>id_data</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Falta en Pagina de glosario</t>
+  </si>
+  <si>
+    <t>detalle datos</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -671,12 +674,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="111">
     <dxf>
       <font>
         <strike val="0"/>
@@ -923,6 +929,76 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1810,12 +1886,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="4" xr9:uid="{E73DC5DB-65E0-4CDC-8723-39C447B57205}">
-      <tableStyleElement type="wholeTable" dxfId="103"/>
-      <tableStyleElement type="headerRow" dxfId="102"/>
+      <tableStyleElement type="wholeTable" dxfId="110"/>
+      <tableStyleElement type="headerRow" dxfId="109"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 1 2" pivot="0" table="0" count="4" xr9:uid="{FDE8ADFA-0004-4C7D-AFA7-843ECAFD2612}">
-      <tableStyleElement type="wholeTable" dxfId="101"/>
-      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="wholeTable" dxfId="108"/>
+      <tableStyleElement type="headerRow" dxfId="107"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2487,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76524AA2-8EDB-4148-B5B0-FAD5A16B748B}">
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2769,7 +2845,7 @@
       <c r="I12" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="30" t="s">
         <v>133</v>
       </c>
       <c r="K12" s="20">
@@ -3617,7 +3693,7 @@
       <c r="J39" s="17"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="3:14" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:14" ht="24" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>4</v>
       </c>
@@ -3628,7 +3704,7 @@
         <v>75</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>18</v>
@@ -3636,7 +3712,7 @@
       <c r="H40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="27" t="s">
         <v>84</v>
       </c>
       <c r="J40" s="17" t="s">
@@ -3678,7 +3754,7 @@
         <v>84</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -3740,7 +3816,7 @@
         <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>23</v>
@@ -3950,164 +4026,193 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E6 E39:E1048576 E8:E18 E20:E36">
-    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="105" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="107" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="108" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
-    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="104" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
-    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F27 F17">
-    <cfRule type="cellIs" dxfId="90" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="94" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="95" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="88" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="85" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="82" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="81" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22 F24:F25">
-    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="77" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="75" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="74" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H69">
-    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
       <formula>"No sé"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="72" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
       <formula>"Sí"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F29">
-    <cfRule type="cellIs" dxfId="72" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="64" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="65" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="69" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="63" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="72" priority="57" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="70" priority="55" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="69" priority="54" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="68" priority="51" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="67" priority="52" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="53" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="65" priority="49" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="51" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="cellIs" dxfId="63" priority="48" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="cellIs" dxfId="62" priority="47" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
@@ -4118,7 +4223,7 @@
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
@@ -4126,17 +4231,17 @@
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="E37:E38">
     <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="E37:E38">
     <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="E37:E38">
     <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
@@ -4147,7 +4252,7 @@
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="E37:E38">
     <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
@@ -4155,17 +4260,17 @@
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
@@ -4176,7 +4281,7 @@
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
@@ -4184,36 +4289,36 @@
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
@@ -4221,17 +4326,17 @@
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="F42">
     <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="F42">
     <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="F42">
     <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
@@ -4242,7 +4347,7 @@
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="F42">
     <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
@@ -4250,47 +4355,47 @@
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
-      <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4327,7 +4432,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{E862098E-BE2E-466C-88ED-8C2B13573CEA}">
+          <x14:cfRule type="iconSet" priority="56" id="{E862098E-BE2E-466C-88ED-8C2B13573CEA}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4346,7 +4451,7 @@
           <xm:sqref>K1:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="130" id="{8ACB3541-9894-45E0-B730-A983311A443C}">
+          <x14:cfRule type="iconSet" priority="137" id="{8ACB3541-9894-45E0-B730-A983311A443C}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/CheckList_control_calidad_Productos.xlsx
+++ b/CheckList_control_calidad_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDCA775-752F-4AD4-91C3-6C5F4D924946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5CD236-E45B-4D7F-B643-A2C8E53B242D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{22BBE0F1-CB60-4739-80A3-1D6304EC72D6}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="128">
   <si>
     <t>id_data</t>
   </si>
@@ -261,9 +261,6 @@
     <t>00091</t>
   </si>
   <si>
-    <t>DATAFUEGO</t>
-  </si>
-  <si>
     <t>0013</t>
   </si>
   <si>
@@ -357,42 +354,9 @@
     <t>https://app.powerbi.com/view?r=eyJrIjoiN2RiNDAxYWQtZjIyZi00ZmQ5LWE0M2UtOTBkMGQ3NWEyNGM5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectiond3ed353228b160739c25</t>
   </si>
   <si>
-    <t xml:space="preserve">Error en Link geolocalización y otros </t>
-  </si>
-  <si>
     <t>sí</t>
   </si>
   <si>
-    <t>DATAFUEGO - GT</t>
-  </si>
-  <si>
-    <t>DATAFUEGO - BZ</t>
-  </si>
-  <si>
-    <t>DATAFUEGO - NG</t>
-  </si>
-  <si>
-    <t>DATAFUEGO - CR</t>
-  </si>
-  <si>
-    <t>DATAFUEGO - PN</t>
-  </si>
-  <si>
-    <t>DATAFUEGO - RD</t>
-  </si>
-  <si>
-    <t>DATAFUEGO - CL</t>
-  </si>
-  <si>
-    <t>DATAFUEGO - SV</t>
-  </si>
-  <si>
-    <t>DATACLIMA - GT</t>
-  </si>
-  <si>
-    <t>DATACLIMA - Pais</t>
-  </si>
-  <si>
     <t>Índice sociomaterial Territorial</t>
   </si>
   <si>
@@ -420,12 +384,6 @@
     <t>Femicidios El Salvador</t>
   </si>
   <si>
-    <t>Incendios Región Antofagasta</t>
-  </si>
-  <si>
-    <t>Incendios Región Tarapacá</t>
-  </si>
-  <si>
     <t>Femicidio Guatemala</t>
   </si>
   <si>
@@ -435,9 +393,6 @@
     <t>GEE Geomática</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>verificado link shopify</t>
   </si>
   <si>
@@ -450,13 +405,34 @@
     <t>Omar</t>
   </si>
   <si>
-    <t>Actualizar</t>
-  </si>
-  <si>
-    <t>Falta en Pagina de glosario</t>
-  </si>
-  <si>
     <t>detalle datos</t>
+  </si>
+  <si>
+    <t>https://odooutil.azurewebsites.net/ICVU/index</t>
+  </si>
+  <si>
+    <t>https://odooutil.azurewebsites.net/GEE/Index/9029/2/64/2</t>
+  </si>
+  <si>
+    <t>https://odooutil.azurewebsites.net/GEE/Index/9001/0/23/0</t>
+  </si>
+  <si>
+    <t>https://odooutil.azurewebsites.net/GEE/Index/9003/0/25/0</t>
+  </si>
+  <si>
+    <t>covid Panamá</t>
+  </si>
+  <si>
+    <t>covid Chile</t>
+  </si>
+  <si>
+    <t>covid Guatemala</t>
+  </si>
+  <si>
+    <t>covid Honduras</t>
+  </si>
+  <si>
+    <t>Plataforma de Monitoreo de Fuego</t>
   </si>
 </sst>
 </file>
@@ -508,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -662,27 +644,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="115">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1886,12 +1909,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="4" xr9:uid="{E73DC5DB-65E0-4CDC-8723-39C447B57205}">
-      <tableStyleElement type="wholeTable" dxfId="110"/>
-      <tableStyleElement type="headerRow" dxfId="109"/>
+      <tableStyleElement type="wholeTable" dxfId="114"/>
+      <tableStyleElement type="headerRow" dxfId="113"/>
     </tableStyle>
     <tableStyle name="Estilo de segmentación de datos 1 2" pivot="0" table="0" count="4" xr9:uid="{FDE8ADFA-0004-4C7D-AFA7-843ECAFD2612}">
-      <tableStyleElement type="wholeTable" dxfId="108"/>
-      <tableStyleElement type="headerRow" dxfId="107"/>
+      <tableStyleElement type="wholeTable" dxfId="112"/>
+      <tableStyleElement type="headerRow" dxfId="111"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2236,7 +2259,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA33906E-3192-4C5E-B50C-059F3B3A57AA}" name="Tabla1" displayName="Tabla1" ref="A7:N69" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA33906E-3192-4C5E-B50C-059F3B3A57AA}" name="Tabla1" displayName="Tabla1" ref="A7:N69" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A7:N69" xr:uid="{F94598C0-675C-458D-8A7A-0507A479BD62}">
     <filterColumn colId="13">
       <filters>
@@ -2245,20 +2268,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{CA3E0233-8209-4630-ADEA-2E0E51C73296}" name="id_data" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9B8D6091-6D3D-473D-A9A3-CC8A5186F5AE}" name="Corr_Producto" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{66FCD6EB-8AAE-4CD4-ABAF-CAA730707198}" name="Data" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{BEBD8961-D6FB-4B95-811E-B8263D7CB37E}" name="Productos seleccionados" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{974E1CE3-9780-41C2-92CE-73B1DEA743B0}" name="Control de calidad" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{92D0E3B2-D49E-40D2-8040-69599106A637}" name="Observaciones acogidas" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{593B317A-3A43-4C8F-AFD0-96F8590CAD73}" name="Responsable" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{6CC30FE6-AEC2-488D-AE2A-123E78FDAD6F}" name="Publicado" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{1C035351-BF77-49A5-AD57-62BCF73D06DC}" name="Link" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{69330BAE-DBFC-4DDA-AA61-E5BE9CECDACE}" name="que falta?" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{F36049BD-0D02-45AD-BDD0-D6B537AE1989}" name="Como utilizarlo" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{6F734004-D3C2-4ECC-8AC2-4C05930E8CB5}" name="Logo" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5B5E7BAA-CE7D-40E7-9087-30318D155B5A}" name="Portada" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00471630-6282-4130-99F2-1F682676D816}" name="Listo para el lanzamiento" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CA3E0233-8209-4630-ADEA-2E0E51C73296}" name="id_data" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{9B8D6091-6D3D-473D-A9A3-CC8A5186F5AE}" name="Corr_Producto" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{66FCD6EB-8AAE-4CD4-ABAF-CAA730707198}" name="Data" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BEBD8961-D6FB-4B95-811E-B8263D7CB37E}" name="Productos seleccionados" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{974E1CE3-9780-41C2-92CE-73B1DEA743B0}" name="Control de calidad" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{92D0E3B2-D49E-40D2-8040-69599106A637}" name="Observaciones acogidas" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{593B317A-3A43-4C8F-AFD0-96F8590CAD73}" name="Responsable" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{6CC30FE6-AEC2-488D-AE2A-123E78FDAD6F}" name="Publicado" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{1C035351-BF77-49A5-AD57-62BCF73D06DC}" name="Link" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{69330BAE-DBFC-4DDA-AA61-E5BE9CECDACE}" name="que falta?" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{F36049BD-0D02-45AD-BDD0-D6B537AE1989}" name="Como utilizarlo" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{6F734004-D3C2-4ECC-8AC2-4C05930E8CB5}" name="Logo" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5B5E7BAA-CE7D-40E7-9087-30318D155B5A}" name="Portada" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00471630-6282-4130-99F2-1F682676D816}" name="Listo para el lanzamiento" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2563,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76524AA2-8EDB-4148-B5B0-FAD5A16B748B}">
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2588,19 +2611,19 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="8" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.35">
@@ -2614,37 +2637,37 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -2657,23 +2680,23 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>101</v>
+        <v>78</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="3">
@@ -2699,26 +2722,26 @@
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" s="20">
         <v>1</v>
@@ -2743,23 +2766,23 @@
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="20">
@@ -2785,23 +2808,23 @@
       <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="3">
@@ -2827,27 +2850,25 @@
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="30" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>133</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="28"/>
       <c r="K12" s="20">
         <v>1</v>
       </c>
@@ -2858,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2871,27 +2892,25 @@
       <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>102</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="20">
         <v>1</v>
       </c>
@@ -2915,23 +2934,23 @@
       <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="3">
@@ -2957,23 +2976,23 @@
       <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="20">
@@ -2999,23 +3018,23 @@
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="30" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="3">
@@ -3041,23 +3060,23 @@
       <c r="C17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="30" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="3">
@@ -3083,20 +3102,26 @@
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>115</v>
+      <c r="D18" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="J18" s="17"/>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -3111,23 +3136,23 @@
       <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>114</v>
+      <c r="D19" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="J19" s="17"/>
       <c r="M19" s="3">
@@ -3148,17 +3173,17 @@
         <v>49</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="17"/>
       <c r="N20" s="3">
@@ -3177,16 +3202,16 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -3204,16 +3229,16 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -3229,23 +3254,23 @@
       <c r="C23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="30" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="3">
@@ -3275,16 +3300,16 @@
         <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -3304,16 +3329,16 @@
         <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -3329,23 +3354,23 @@
       <c r="C26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="30" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="3">
@@ -3371,26 +3396,26 @@
       <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>100</v>
+      <c r="D27" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -3415,23 +3440,23 @@
       <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="3">
@@ -3455,28 +3480,28 @@
         <v>68</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -3501,22 +3526,24 @@
       <c r="C30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>70</v>
+      <c r="D30" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="J30" s="17"/>
       <c r="K30" s="3">
         <v>0</v>
@@ -3533,30 +3560,32 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>73</v>
+      <c r="D31" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="J31" s="17"/>
       <c r="K31" s="3">
         <v>0</v>
@@ -3589,25 +3618,25 @@
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="3">
@@ -3624,23 +3653,23 @@
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D37" s="24" t="s">
-        <v>95</v>
+      <c r="D37" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="3">
@@ -3657,69 +3686,69 @@
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D38" s="24" t="s">
-        <v>127</v>
+      <c r="D38" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="J38" s="17"/>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" s="17"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="3:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>120</v>
+      <c r="D40" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>134</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="17"/>
       <c r="K40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="3">
         <v>1</v>
@@ -3728,33 +3757,33 @@
         <v>1</v>
       </c>
       <c r="N40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>121</v>
+      <c r="D41" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -3773,23 +3802,23 @@
       <c r="C42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>122</v>
+      <c r="D42" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J42" s="17"/>
       <c r="K42" s="3">
@@ -3809,23 +3838,23 @@
       <c r="C43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>125</v>
+      <c r="D43" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="3">
@@ -3842,560 +3871,508 @@
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D44" s="8" t="s">
-        <v>112</v>
+      <c r="D44" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="G44" s="16"/>
       <c r="J44" s="17"/>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D45" s="8" t="s">
-        <v>113</v>
+      <c r="D45" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="G45" s="16"/>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D46" s="8" t="s">
-        <v>104</v>
+      <c r="D46" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="G46" s="16"/>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D47" s="8" t="s">
-        <v>105</v>
+      <c r="D47" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="G47" s="16"/>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="D48" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="G48" s="16"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D49" s="8" t="s">
-        <v>106</v>
-      </c>
+    <row r="49" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G49" s="16"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D50" s="8" t="s">
-        <v>107</v>
-      </c>
+    <row r="50" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G50" s="16"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D51" s="8" t="s">
-        <v>108</v>
-      </c>
+    <row r="51" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G51" s="16"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D52" s="8" t="s">
-        <v>109</v>
-      </c>
+    <row r="52" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G52" s="16"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D53" s="8" t="s">
-        <v>110</v>
-      </c>
+    <row r="53" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G53" s="16"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D54" s="8" t="s">
-        <v>123</v>
-      </c>
+    <row r="54" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G54" s="16"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D55" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="55" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G55" s="16"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D56" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="56" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G56" s="16"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D57" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="57" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G57" s="16"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D58" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="58" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G58" s="16"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D59" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="59" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G59" s="16"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D60" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="60" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G60" s="16"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D61" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="61" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G61" s="16"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D62" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="62" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G62" s="16"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D63" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="63" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G63" s="16"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D64" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="64" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G64" s="16"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D65" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="65" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G65" s="16"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D66" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="66" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G66" s="16"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D67" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="67" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G67" s="16"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D68" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="68" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G68" s="16"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D69" s="8" t="s">
-        <v>124</v>
-      </c>
+    <row r="69" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G69" s="16"/>
       <c r="N69" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E6 E39:E1048576 E8:E18 E20:E36">
-    <cfRule type="cellIs" dxfId="106" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
+    <cfRule type="cellIs" dxfId="106" priority="108" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
+    <cfRule type="cellIs" dxfId="105" priority="107" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="102" priority="104" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14 F27 F17">
+    <cfRule type="cellIs" dxfId="101" priority="98" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="99" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="99" priority="71" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="89" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="94" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E18 F7:F29 E20:E36">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="93" priority="70" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="87" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="91" priority="86" operator="equal">
       <formula>"Histórico"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="cellIs" dxfId="90" priority="85" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F22 F24:F25">
+    <cfRule type="cellIs" dxfId="89" priority="84" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="88" priority="79" operator="equal">
+      <formula>"Sí"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H69">
+    <cfRule type="cellIs" dxfId="86" priority="75" operator="equal">
+      <formula>"No sé"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="76" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
+      <formula>"Sí"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F29">
+    <cfRule type="cellIs" dxfId="83" priority="65" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="68" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="69" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="80" priority="67" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F27 F17">
-    <cfRule type="cellIs" dxfId="97" priority="94" operator="equal">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="79" priority="66" operator="equal">
+      <formula>"Histórico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="78" priority="63" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="64" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="76" priority="61" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="73" priority="58" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="85" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="72" priority="55" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="56" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="57" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="cellIs" dxfId="86" priority="81" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22 F24:F25">
-    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="84" priority="75" operator="equal">
-      <formula>"Sí"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="83" priority="74" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H69">
-    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
-      <formula>"No sé"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="72" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
-      <formula>"Sí"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F29">
-    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="64" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="65" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="76" priority="63" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="69" priority="53" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
-      <formula>"Histórico"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="54" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="72" priority="57" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="70" priority="55" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="69" priority="54" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="68" priority="51" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="cellIs" dxfId="67" priority="52" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="53" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="cellIs" dxfId="66" priority="51" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="65" priority="49" operator="equal">
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="49" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F38">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="63" priority="48" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="62" priority="47" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E37:E38">
     <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E38">
+    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
+  <conditionalFormatting sqref="E37:E38">
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E38">
+    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="39" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F31">
+    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E38">
-    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
+  <conditionalFormatting sqref="F30:F31">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F31">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+      <formula>"En desarrollo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="44" priority="29" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="43" priority="28" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F42">
     <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+      <formula>"No iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"No iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
-      <formula>"No iniciado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
-      <formula>"Listo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"En desarrollo"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"En desarrollo"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4403,24 +4380,24 @@
     <hyperlink ref="I8" r:id="rId2" xr:uid="{29BA6281-AB70-421F-BFC7-AE0270314E80}"/>
     <hyperlink ref="I17" r:id="rId3" display="https://app.powerbi.com/view?r=eyJrIjoiNmM5MmI0MzUtMzcxYS00MzljLTkxYzQtYzk5MzJmYzU5YWU0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{EEEBA81F-0D53-4A63-BC40-8F8AD80E4CDB}"/>
     <hyperlink ref="I12" r:id="rId4" display="https://app.powerbi.com/view?r=eyJrIjoiMzlhNjBlMTItNzFiMy00ODMxLWFhZjQtMTQ1MmY1NGMxM2U1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{D2C23CF5-4E63-4AE6-859F-95A3D77CDA19}"/>
-    <hyperlink ref="I13" r:id="rId5" display="https://app.powerbi.com/view?r=eyJrIjoiYzljMTRlY2YtOTM5Yy00OGIzLWI5MDEtNjI1N2Q2ZTliMjIxIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{98C6BD5E-91EE-4262-9EF0-DA98F54D3349}"/>
-    <hyperlink ref="I9" r:id="rId6" display="https://app.powerbi.com/view?r=eyJrIjoiNDA4YTU5MWItMTM4OS00MjFlLTg4YzAtMzcwODVlMTRkMzNhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection" xr:uid="{C4F54ECE-3051-4DB7-8D77-B25C38EA48BB}"/>
-    <hyperlink ref="I29" r:id="rId7" display="https://app.powerbi.com/view?r=eyJrIjoiNDA0MWJjYTUtNDhhOS00MjU4LWI5ODMtNzE5ZDNmMWZiZDlhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{502A239C-81D9-45E9-814C-BD4BCBE48612}"/>
-    <hyperlink ref="I19" r:id="rId8" display="http://104.43.141.146/datavivienda/" xr:uid="{5261F965-B7CB-4AD7-A610-92669CC4EC99}"/>
-    <hyperlink ref="I10" r:id="rId9" display="https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{940495BE-FE18-44FC-B714-C2DD42BA04F0}"/>
-    <hyperlink ref="I41" r:id="rId10" display="https://app.powerbi.com/view?r=eyJrIjoiMDMwZWM0N2EtMWM1Zi00NDVmLWJiZDAtNzU0MmNhMTk3ZmM1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0B02B463-6996-480C-AA64-1EDC3C7DE942}"/>
-    <hyperlink ref="I15" r:id="rId11" display="https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C5364A15-2260-4D5D-8FB6-3A899CA5963D}"/>
-    <hyperlink ref="I27" r:id="rId12" display="https://app.powerbi.com/view?r=eyJrIjoiN2QzY2Q1YzUtOWRhZC00NjAzLTgxOWQtZmU2MzgzZDkxYzBhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{868574EA-000E-4D29-B7E2-3BF23AF2ED40}"/>
-    <hyperlink ref="I14" r:id="rId13" display="https://app.powerbi.com/view?r=eyJrIjoiOGMyNjJmMTgtYmVmZC00MmY0LWFiM2ItNGM5M2YxZGFiMjc4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{064E9AAE-D3BA-4640-8E1C-0E4560FC8E63}"/>
-    <hyperlink ref="I28" r:id="rId14" display="https://app.powerbi.com/view?r=eyJrIjoiYjY3NDVkZWItOWI3NC00ZDg1LWJjNjYtMDczMjFjYzM4MGJiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{3E448282-A0AD-4F44-95A8-18825F9CE866}"/>
-    <hyperlink ref="I26" r:id="rId15" display="https://app.powerbi.com/view?r=eyJrIjoiNDY4Mzc1ZWMtMzk3MS00OTQzLWJkNzMtMzM1MjJiMmQ1OGE3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{F1D7CA0B-4967-4222-BC7A-9940F22DE92E}"/>
-    <hyperlink ref="I16" r:id="rId16" display="https://app.powerbi.com/view?r=eyJrIjoiZTFiY2U3YmEtZTJjNS00ODJlLWFiNGUtODA4YTQ1YTg4NjAyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection236dfd66237a9a97d53f" xr:uid="{ADC7F8A3-408A-4C0C-AA2C-89143F8368B2}"/>
-    <hyperlink ref="I37" r:id="rId17" display="https://app.powerbi.com/view?r=eyJrIjoiZTVlMjRhYjUtZmQ2Yi00ZDA4LTgxOWMtNzM2MzZkNWRlNWNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{14793DD5-C798-4547-903A-9135D9A5C77B}"/>
-    <hyperlink ref="I36" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiN2Y0MzcxMjgtNDU4My00ODEzLThlYTktNTk0ZmVmMDJlZTU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4FB25492-F207-4BED-BF51-3147F5C14743}"/>
-    <hyperlink ref="I23" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiNzQyZDE0ZTgtNzcxOS00MzA5LTgxNzAtNTNlNGM5NWE5YTkwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{03014AAF-F0D1-4884-A17A-E31D05BCF0D9}"/>
-    <hyperlink ref="I42" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{E6CD55DD-7333-4455-9CDE-A9D05691D019}"/>
-    <hyperlink ref="I43" r:id="rId21" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{308F484F-97E5-4012-9D9D-4CD3770DB9EF}"/>
-    <hyperlink ref="I40" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{3C541839-0F8A-4322-9FC7-499EA14D9601}"/>
+    <hyperlink ref="I9" r:id="rId5" display="https://app.powerbi.com/view?r=eyJrIjoiNDA4YTU5MWItMTM4OS00MjFlLTg4YzAtMzcwODVlMTRkMzNhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection" xr:uid="{C4F54ECE-3051-4DB7-8D77-B25C38EA48BB}"/>
+    <hyperlink ref="I29" r:id="rId6" display="https://app.powerbi.com/view?r=eyJrIjoiNDA0MWJjYTUtNDhhOS00MjU4LWI5ODMtNzE5ZDNmMWZiZDlhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{502A239C-81D9-45E9-814C-BD4BCBE48612}"/>
+    <hyperlink ref="I19" r:id="rId7" display="http://104.43.141.146/datavivienda/" xr:uid="{5261F965-B7CB-4AD7-A610-92669CC4EC99}"/>
+    <hyperlink ref="I10" r:id="rId8" display="https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{940495BE-FE18-44FC-B714-C2DD42BA04F0}"/>
+    <hyperlink ref="I41" r:id="rId9" display="https://app.powerbi.com/view?r=eyJrIjoiMDMwZWM0N2EtMWM1Zi00NDVmLWJiZDAtNzU0MmNhMTk3ZmM1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{0B02B463-6996-480C-AA64-1EDC3C7DE942}"/>
+    <hyperlink ref="I15" r:id="rId10" display="https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{C5364A15-2260-4D5D-8FB6-3A899CA5963D}"/>
+    <hyperlink ref="I27" r:id="rId11" display="https://app.powerbi.com/view?r=eyJrIjoiN2QzY2Q1YzUtOWRhZC00NjAzLTgxOWQtZmU2MzgzZDkxYzBhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{868574EA-000E-4D29-B7E2-3BF23AF2ED40}"/>
+    <hyperlink ref="I14" r:id="rId12" display="https://app.powerbi.com/view?r=eyJrIjoiOGMyNjJmMTgtYmVmZC00MmY0LWFiM2ItNGM5M2YxZGFiMjc4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{064E9AAE-D3BA-4640-8E1C-0E4560FC8E63}"/>
+    <hyperlink ref="I28" r:id="rId13" display="https://app.powerbi.com/view?r=eyJrIjoiYjY3NDVkZWItOWI3NC00ZDg1LWJjNjYtMDczMjFjYzM4MGJiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{3E448282-A0AD-4F44-95A8-18825F9CE866}"/>
+    <hyperlink ref="I26" r:id="rId14" display="https://app.powerbi.com/view?r=eyJrIjoiNDY4Mzc1ZWMtMzk3MS00OTQzLWJkNzMtMzM1MjJiMmQ1OGE3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{F1D7CA0B-4967-4222-BC7A-9940F22DE92E}"/>
+    <hyperlink ref="I16" r:id="rId15" display="https://app.powerbi.com/view?r=eyJrIjoiZTFiY2U3YmEtZTJjNS00ODJlLWFiNGUtODA4YTQ1YTg4NjAyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection236dfd66237a9a97d53f" xr:uid="{ADC7F8A3-408A-4C0C-AA2C-89143F8368B2}"/>
+    <hyperlink ref="I37" r:id="rId16" display="https://app.powerbi.com/view?r=eyJrIjoiZTVlMjRhYjUtZmQ2Yi00ZDA4LTgxOWMtNzM2MzZkNWRlNWNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{14793DD5-C798-4547-903A-9135D9A5C77B}"/>
+    <hyperlink ref="I36" r:id="rId17" display="https://app.powerbi.com/view?r=eyJrIjoiN2Y0MzcxMjgtNDU4My00ODEzLThlYTktNTk0ZmVmMDJlZTU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4FB25492-F207-4BED-BF51-3147F5C14743}"/>
+    <hyperlink ref="I23" r:id="rId18" display="https://app.powerbi.com/view?r=eyJrIjoiNzQyZDE0ZTgtNzcxOS00MzA5LTgxNzAtNTNlNGM5NWE5YTkwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{03014AAF-F0D1-4884-A17A-E31D05BCF0D9}"/>
+    <hyperlink ref="I42" r:id="rId19" display="https://app.powerbi.com/view?r=eyJrIjoiM2IxNjVjZDAtMjEzYi00ZjQ5LThhOGItNDlhNzk0M2YyY2ZiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{E6CD55DD-7333-4455-9CDE-A9D05691D019}"/>
+    <hyperlink ref="I43" r:id="rId20" display="https://app.powerbi.com/view?r=eyJrIjoiYjAxNDg1YzYtNjQ3Ny00YzZkLTkzZDEtYTg4M2FmNDRiODdmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{308F484F-97E5-4012-9D9D-4CD3770DB9EF}"/>
+    <hyperlink ref="I40" r:id="rId21" display="https://app.powerbi.com/view?r=eyJrIjoiZTE4YTdlNmMtZDEyMy00MjIzLTlkOTMtZmZkNTMzNTA1N2Y4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2" xr:uid="{3C541839-0F8A-4322-9FC7-499EA14D9601}"/>
+    <hyperlink ref="I13" r:id="rId22" display="https://app.powerbi.com/view?r=eyJrIjoiYzljMTRlY2YtOTM5Yy00OGIzLWI5MDEtNjI1N2Q2ZTliMjIxIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9" xr:uid="{4D463232-B23F-40F4-A2E8-5119FB51B36A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -4432,7 +4409,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="56" id="{E862098E-BE2E-466C-88ED-8C2B13573CEA}">
+          <x14:cfRule type="iconSet" priority="60" id="{E862098E-BE2E-466C-88ED-8C2B13573CEA}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4451,7 +4428,7 @@
           <xm:sqref>K1:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="137" id="{8ACB3541-9894-45E0-B730-A983311A443C}">
+          <x14:cfRule type="iconSet" priority="141" id="{8ACB3541-9894-45E0-B730-A983311A443C}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
